--- a/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -604,12 +604,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +619,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,7 +661,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -688,54 +688,54 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Multi-Year Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>R:some</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#Year</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>R:some</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Month of year</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -856,12 +856,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,39 +871,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -940,12 +940,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,39 +955,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,39 +997,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,39 +1039,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1108,12 +1108,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,39 +1123,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1192,12 +1192,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,39 +1207,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,39 +1249,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,39 +1291,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,39 +1375,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1444,12 +1444,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1501,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,7 +1585,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1612,12 +1612,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,39 +1627,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1696,12 +1696,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,39 +1711,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1753,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1864,12 +1864,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1879,39 +1879,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1948,12 +1948,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,39 +1963,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2005,39 +2005,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,39 +2047,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2116,12 +2116,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,7 +2173,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2200,12 +2200,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,39 +2215,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2368,12 +2368,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,39 +2383,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2452,12 +2452,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,39 +2467,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,39 +2551,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,7 +2593,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2620,12 +2620,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,39 +2635,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2704,12 +2704,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,39 +2887,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,7 +2929,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2956,12 +2956,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,39 +2971,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3124,12 +3124,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,39 +3139,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,7 +3181,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3208,12 +3208,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,39 +3223,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,39 +3265,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3307,39 +3307,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3376,12 +3376,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,39 +3391,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3460,12 +3460,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3475,39 +3475,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3517,39 +3517,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3559,39 +3559,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3628,12 +3628,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,39 +3643,39 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3712,12 +3712,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3727,39 +3727,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,39 +3769,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,39 +3811,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,7 +3853,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3880,12 +3880,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3895,39 +3895,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3979,39 +3979,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,39 +4021,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4063,39 +4063,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4132,12 +4132,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,39 +4147,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,7 +4189,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4216,12 +4216,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,39 +4231,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4273,39 +4273,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4315,39 +4315,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4384,12 +4384,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4399,39 +4399,39 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4483,27 +4483,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +619,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,39 +703,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +829,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,39 +871,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,39 +955,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,39 +997,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,39 +1039,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1081,39 +1081,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,39 +1123,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,39 +1165,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,81 +1207,81 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>Multi-Second Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>R:some</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#Year</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>R:some</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Month of year</t>
-        </is>
-      </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,39 +1291,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,39 +1333,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,39 +1375,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,39 +1417,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1501,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,39 +1585,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,39 +1627,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,39 +1669,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,39 +1711,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1753,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,39 +1837,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1879,39 +1879,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,39 +1921,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,27 +1963,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
@@ -2010,22 +2010,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
@@ -2052,22 +2052,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
@@ -2094,22 +2094,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
@@ -2178,22 +2178,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
@@ -2220,34 +2220,34 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,39 +2383,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,39 +2425,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,39 +2467,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,39 +2551,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,39 +2593,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,39 +2635,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,39 +2677,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,39 +2845,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,39 +2887,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,39 +2929,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,39 +2971,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,39 +3097,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,39 +3139,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,39 +3223,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,39 +3265,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3307,39 +3307,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,39 +3349,39 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,39 +3391,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,39 +3433,39 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3475,39 +3475,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3517,39 +3517,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3559,39 +3559,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3601,39 +3601,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,39 +3643,39 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3685,39 +3685,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3727,39 +3727,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,39 +3769,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,39 +3811,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,39 +3853,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3895,39 +3895,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3937,39 +3937,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3979,39 +3979,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,39 +4021,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4063,39 +4063,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,39 +4105,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,39 +4147,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,39 +4189,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,27 +4231,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
@@ -4278,22 +4278,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
@@ -4320,22 +4320,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
@@ -4362,22 +4362,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
@@ -4404,22 +4404,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
@@ -4446,22 +4446,22 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4488,22 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,17 +619,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,19 +639,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,39 +703,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +829,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -891,19 +891,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,27 +955,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
@@ -1002,22 +1002,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
@@ -1044,22 +1044,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
@@ -1086,22 +1086,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
@@ -1170,22 +1170,22 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
@@ -1212,34 +1212,34 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,39 +1249,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,39 +1291,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,39 +1333,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1395,19 +1395,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,39 +1417,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1501,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,39 +1585,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1647,19 +1647,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,39 +1669,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,39 +1711,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1753,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,39 +1837,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1879,17 +1879,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1899,19 +1899,19 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,39 +1921,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,39 +1963,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2005,39 +2005,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,39 +2047,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2089,39 +2089,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2151,19 +2151,19 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,39 +2173,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,39 +2215,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,17 +2383,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2403,19 +2403,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,39 +2425,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,39 +2467,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,39 +2551,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,39 +2593,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,17 +2635,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2655,19 +2655,19 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,39 +2677,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,39 +2845,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,17 +2887,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2907,19 +2907,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,39 +2929,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,39 +2971,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,39 +3097,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,17 +3139,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3159,19 +3159,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,39 +3223,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,39 +3265,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3307,39 +3307,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,39 +3349,39 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,17 +3391,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3411,19 +3411,19 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,39 +3433,39 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3475,39 +3475,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3517,39 +3517,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3559,39 +3559,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3601,39 +3601,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,17 +3643,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3663,19 +3663,19 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3685,39 +3685,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3727,39 +3727,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,39 +3769,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,39 +3811,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,39 +3853,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3895,17 +3895,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3915,19 +3915,19 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3937,39 +3937,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3979,39 +3979,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,39 +4021,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4063,81 +4063,81 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
+          <t>Multi-Month Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>R:some</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#Year</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>R:some</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Temporal position</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,17 +4147,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4167,19 +4167,19 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,39 +4189,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,39 +4231,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4273,39 +4273,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4315,39 +4315,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4357,39 +4357,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4399,17 +4399,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4419,19 +4419,19 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4441,39 +4441,39 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4483,27 +4483,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -646,12 +646,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,39 +703,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +829,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -898,12 +898,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,39 +955,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,39 +997,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,39 +1039,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1081,39 +1081,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1150,12 +1150,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,39 +1165,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,39 +1207,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,39 +1249,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,39 +1291,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,39 +1333,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1402,12 +1402,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,39 +1417,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1501,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,39 +1585,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1654,12 +1654,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,39 +1669,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,39 +1711,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1753,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,39 +1837,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1906,12 +1906,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,39 +1921,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,39 +1963,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2005,39 +2005,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2047,39 +2047,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2089,39 +2089,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2158,12 +2158,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2173,39 +2173,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00001206</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Multi-Year Temporal Interval</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2215,39 +2215,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2410,12 +2410,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,39 +2425,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,39 +2467,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,39 +2551,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,39 +2593,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,7 +2635,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2662,12 +2662,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,39 +2677,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,39 +2845,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2914,12 +2914,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,39 +2929,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,39 +2971,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,39 +3097,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3166,12 +3166,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,39 +3223,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,39 +3265,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3307,39 +3307,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,39 +3349,39 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3418,12 +3418,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,39 +3433,39 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001206</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Multi-Year Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3475,39 +3475,39 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3517,39 +3517,39 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3559,39 +3559,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3601,39 +3601,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,7 +3643,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3685,39 +3685,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3727,39 +3727,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,39 +3769,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,39 +3811,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,39 +3853,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3922,12 +3922,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3937,81 +3937,81 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
+          <t>Second</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>R:some</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#Year</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>R:some</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2006/time#January</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>January</t>
-        </is>
-      </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,39 +4021,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4063,39 +4063,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,39 +4105,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -4174,12 +4174,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,39 +4189,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,39 +4231,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4273,39 +4273,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4315,39 +4315,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4357,39 +4357,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -4426,12 +4426,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4441,39 +4441,39 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4483,27 +4483,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>

--- a/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
+++ b/projects/project-3/assignment/src/data/ccot-time-structural-matches.xlsx
@@ -478,12 +478,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +619,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000063</t>
+          <t>https://www.commoncoreontologies.org/ont00000992</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Multi-Hour Temporal Interval</t>
+          <t>Second</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,39 +703,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,39 +787,39 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -829,39 +829,39 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,39 +871,39 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000329</t>
+          <t>https://www.commoncoreontologies.org/ont00000832</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Multi-Month Temporal Interval</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,39 +955,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,39 +997,39 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,39 +1039,39 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1081,39 +1081,39 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1123,39 +1123,39 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1165,39 +1165,39 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001154</t>
+          <t>https://www.commoncoreontologies.org/ont00000211</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Multi-Second Temporal Interval</t>
+          <t>Multi-Day Temporal Interval</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1207,39 +1207,39 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1249,39 +1249,39 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1291,39 +1291,39 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1333,39 +1333,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1375,39 +1375,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1417,39 +1417,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000211</t>
+          <t>https://www.commoncoreontologies.org/ont00000800</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Multi-Day Temporal Interval</t>
+          <t>Day</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1501,39 +1501,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1543,39 +1543,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1585,39 +1585,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1627,39 +1627,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1669,39 +1669,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000225</t>
+          <t>https://www.commoncoreontologies.org/ont00000223</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>Time of Day</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1711,39 +1711,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
+          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1753,39 +1753,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1795,39 +1795,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1837,39 +1837,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1879,39 +1879,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1921,39 +1921,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000223</t>
+          <t>https://www.commoncoreontologies.org/ont00000619</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Time of Day</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1963,27 +1963,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000203 | SubClassOf: obo:BFO_0000132 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
@@ -2010,22 +2010,22 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
@@ -2052,22 +2052,22 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
@@ -2094,22 +2094,22 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
@@ -2136,22 +2136,22 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
@@ -2178,22 +2178,22 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
@@ -2220,34 +2220,34 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2257,39 +2257,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2299,39 +2299,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2341,39 +2341,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2383,39 +2383,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2425,39 +2425,39 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000619</t>
+          <t>https://www.commoncoreontologies.org/ont00000359</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Week</t>
+          <t>Julian Date</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2467,39 +2467,39 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000225</t>
+          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2509,39 +2509,39 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2551,39 +2551,39 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2593,39 +2593,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2635,39 +2635,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2677,39 +2677,39 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001166</t>
+          <t>https://www.commoncoreontologies.org/ont00001154</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Multi-Minute Temporal Interval</t>
+          <t>Multi-Second Temporal Interval</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2719,39 +2719,39 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000992</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2761,39 +2761,39 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2845,39 +2845,39 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2887,39 +2887,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2929,39 +2929,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000085</t>
+          <t>https://www.commoncoreontologies.org/ont00000225</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Minute</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2971,39 +2971,39 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000832</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3013,39 +3013,39 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3055,39 +3055,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3097,39 +3097,39 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3139,39 +3139,39 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3181,39 +3181,39 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000359</t>
+          <t>https://www.commoncoreontologies.org/ont00001058</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Julian Date</t>
+          <t>Hour</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3223,39 +3223,39 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>SubClassOf: cco:ont00000223 | SubClassOf: obo:BFO_0000132 some cco:ont00000498</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3265,39 +3265,39 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3307,39 +3307,39 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3349,39 +3349,39 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3391,39 +3391,39 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3433,39 +3433,39 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000800</t>
+          <t>https://www.commoncoreontologies.org/ont00000810</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Day</t>
+          <t>Multi-Week Temporal Interval</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3475,81 +3475,81 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Multi-Month Temporal Interval</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>R:some</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2006/time#Year</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
           <t>Year</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>R:some</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Temporal position</t>
-        </is>
-      </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3559,39 +3559,39 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3601,39 +3601,39 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3643,39 +3643,39 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3685,39 +3685,39 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000832</t>
+          <t>https://www.commoncoreontologies.org/ont00000329</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Multi-Month Temporal Interval</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3727,39 +3727,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001088</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000225</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3769,39 +3769,39 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3811,39 +3811,39 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3853,39 +3853,39 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3895,39 +3895,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3937,39 +3937,39 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000992</t>
+          <t>https://www.commoncoreontologies.org/ont00000063</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Second</t>
+          <t>Multi-Hour Temporal Interval</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3979,39 +3979,39 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000085</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4021,39 +4021,39 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4063,39 +4063,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4105,39 +4105,39 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4147,39 +4147,39 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4189,39 +4189,39 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00001058</t>
+          <t>https://www.commoncoreontologies.org/ont00001166</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Hour</t>
+          <t>Multi-Minute Temporal Interval</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4231,39 +4231,39 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00000800</t>
+          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000085</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4273,39 +4273,39 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TemporalPosition</t>
+          <t>http://www.w3.org/2006/time#Year</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Temporal position</t>
+          <t>Year</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>R:card</t>
+          <t>R:card×7</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>SubClassOf: hasTRS exactly 1</t>
+          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4315,39 +4315,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#MonthOfYear</t>
+          <t>http://www.w3.org/2006/time#TimePosition</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Month of year</t>
+          <t>Time position</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>R:card×7; R:has</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
+          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4357,39 +4357,39 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#TimePosition</t>
+          <t>http://www.w3.org/2006/time#MonthOfYear</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Time position</t>
+          <t>Month of year</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:card×7; R:has</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalPosition | SubClassOf: (numericPosition exactly 1 OR nominalPosition exactly 1)</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: day exactly 0 | SubClassOf: hour exactly 0 | SubClassOf: minute exactly 0 | SubClassOf: second exactly 0 | SubClassOf: week exactly 0 | SubClassOf: year exactly 0 | SubClassOf: month exactly 1 | SubClassOf: unitType value unitMonth</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4399,39 +4399,39 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Duration</t>
+          <t>http://www.w3.org/2006/time#January</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Time duration</t>
+          <t>January</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>R:card×2</t>
+          <t>R:has×2</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
+          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4441,39 +4441,39 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#January</t>
+          <t>http://www.w3.org/2006/time#TemporalPosition</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>January</t>
+          <t>Temporal position</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>R:has×2</t>
+          <t>R:card</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>SubClassOf: DateTimeDescription | SubClassOf: unitType value unitMonth | SubClassOf: month value --01</t>
+          <t>SubClassOf: hasTRS exactly 1</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>https://www.commoncoreontologies.org/ont00000810</t>
+          <t>https://www.commoncoreontologies.org/ont00000085</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Multi-Week Temporal Interval</t>
+          <t>Minute</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4483,27 +4483,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SubClassOf: obo:BFO_0000038 | SubClassOf: cco:ont00001924 some cco:ont00000619</t>
+          <t>SubClassOf: obo:BFO_0000202 | SubClassOf: cco:ont00001869 some cco:ont00001058</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2006/time#Year</t>
+          <t>http://www.w3.org/2006/time#Duration</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Year</t>
+          <t>Time duration</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>R:card×7</t>
+          <t>R:card×2</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>SubClassOf: DurationDescription | SubClassOf: days exactly 0 | SubClassOf: hours exactly 0 | SubClassOf: minutes exactly 0 | SubClassOf: months exactly 0 | SubClassOf: seconds exactly 0 | SubClassOf: weeks exactly 0 | SubClassOf: years exactly 1</t>
+          <t>SubClassOf: TemporalDuration | SubClassOf: numericDuration exactly 1 | SubClassOf: unitType exactly 1</t>
         </is>
       </c>
     </row>
